--- a/biology/Botanique/Kaori/Kaori.xlsx
+++ b/biology/Botanique/Kaori/Kaori.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
@@ -513,9 +525,11 @@
           <t>Botanique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Kaori est le nom donné à des espèces de conifères du genre Agathis d'Australie, de Nouvelle-Zélande[1] et de Nouvelle-Calédonie.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Kaori est le nom donné à des espèces de conifères du genre Agathis d'Australie, de Nouvelle-Zélande et de Nouvelle-Calédonie.
 Les cinq espèces endémiques de Nouvelle-Calédonie sont :
 kaori rouge
 kaori de forêt ou kaori du Sud
@@ -549,7 +563,9 @@
           <t>Patronyme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Aoba Kaori (née en 1978), joueuse professionnelle japonaise de go.</t>
         </is>
@@ -579,7 +595,9 @@
           <t>Prénom</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Kaori (ou francisé : Kaoli) est un prénom féminin ou masculin japonais.
 Il est composé d'un ou deux kanjis : 
